--- a/Trab1/Resultados - Busca em Profundidade.xlsx
+++ b/Trab1/Resultados - Busca em Profundidade.xlsx
@@ -8,38 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasestevao/Documents/Git/trabalhosIA/Trab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149BA125-A3DC-B94C-BAC6-6233F2BF9BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92516BB8-7229-E94D-86BD-C5EF8323E3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{F1154A9E-3E06-9C48-A72A-81B4C80FE783}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{F1154A9E-3E06-9C48-A72A-81B4C80FE783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$4:$B$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$4:$C$12</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$2:$D$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$4:$D$12</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$26:$B$34</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$25</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$26:$C$34</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$25</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$26:$D$34</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$26:$B$34</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$25</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$26:$C$34</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$4:$D$12</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$25</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$D$26:$D$34</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$4:$B$12</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2:$C$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$4:$C$12</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>Busca em Profundidade</t>
   </si>
@@ -92,9 +68,6 @@
     <t>Saída Matemática</t>
   </si>
   <si>
-    <t>Campo</t>
-  </si>
-  <si>
     <t>IQSC</t>
   </si>
   <si>
@@ -111,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +125,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,27 +167,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,9 +316,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>Sheet1!$B$4:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Ponto de Ônibus</c:v>
                 </c:pt>
@@ -362,12 +338,9 @@
                   <c:v>Saída Matemática</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Campo</c:v>
+                  <c:v>IQSC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>IQSC</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>SEL</c:v>
                 </c:pt>
               </c:strCache>
@@ -375,10 +348,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>469.6</c:v>
                 </c:pt>
@@ -398,12 +371,9 @@
                   <c:v>260.91000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1197.54</c:v>
+                  <c:v>882.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>882.73</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>1313.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -443,9 +413,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>Sheet1!$B$4:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Ponto de Ônibus</c:v>
                 </c:pt>
@@ -465,12 +435,9 @@
                   <c:v>Saída Matemática</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Campo</c:v>
+                  <c:v>IQSC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>IQSC</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>SEL</c:v>
                 </c:pt>
               </c:strCache>
@@ -478,10 +445,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$12</c:f>
+              <c:f>Sheet1!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>501.59</c:v>
                 </c:pt>
@@ -501,12 +468,9 @@
                   <c:v>260.91000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>914.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>914.72</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>249.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -799,7 +763,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$13</c:f>
+              <c:f>Sheet1!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -822,9 +786,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$14:$B$22</c:f>
+              <c:f>Sheet1!$B$13:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Ponto de Ônibus</c:v>
                 </c:pt>
@@ -844,12 +808,9 @@
                   <c:v>Saída Matemática</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Campo</c:v>
+                  <c:v>IQSC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>IQSC</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>SEL</c:v>
                 </c:pt>
               </c:strCache>
@@ -857,10 +818,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$22</c:f>
+              <c:f>Sheet1!$C$13:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>880.44</c:v>
                 </c:pt>
@@ -880,12 +841,9 @@
                   <c:v>149.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1608.38</c:v>
+                  <c:v>1293.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1293.57</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>1724.36</c:v>
                 </c:pt>
               </c:numCache>
@@ -902,7 +860,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$13</c:f>
+              <c:f>Sheet1!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -925,9 +883,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$14:$B$22</c:f>
+              <c:f>Sheet1!$B$13:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Ponto de Ônibus</c:v>
                 </c:pt>
@@ -947,12 +905,9 @@
                   <c:v>Saída Matemática</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Campo</c:v>
+                  <c:v>IQSC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>IQSC</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>SEL</c:v>
                 </c:pt>
               </c:strCache>
@@ -960,10 +915,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$D$22</c:f>
+              <c:f>Sheet1!$D$13:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>912.43</c:v>
                 </c:pt>
@@ -983,12 +938,9 @@
                   <c:v>149.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1325.56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1325.56</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>660.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -1276,7 +1228,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$25</c:f>
+              <c:f>Sheet1!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1299,9 +1251,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$26:$B$34</c:f>
+              <c:f>Sheet1!$B$24:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Ponto de Ônibus</c:v>
                 </c:pt>
@@ -1321,12 +1273,9 @@
                   <c:v>Saída Matemática</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Campo</c:v>
+                  <c:v>IQSC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>IQSC</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>SEL</c:v>
                 </c:pt>
               </c:strCache>
@@ -1334,10 +1283,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$26:$C$34</c:f>
+              <c:f>Sheet1!$C$24:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>469.6</c:v>
                 </c:pt>
@@ -1357,13 +1306,10 @@
                   <c:v>260.91000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126.2</c:v>
+                  <c:v>346.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>363.14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>190.18</c:v>
+                  <c:v>135.13999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,7 +1325,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$25</c:f>
+              <c:f>Sheet1!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1402,9 +1348,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$26:$B$34</c:f>
+              <c:f>Sheet1!$B$24:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Ponto de Ônibus</c:v>
                 </c:pt>
@@ -1424,12 +1370,9 @@
                   <c:v>Saída Matemática</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Campo</c:v>
+                  <c:v>IQSC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>IQSC</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>SEL</c:v>
                 </c:pt>
               </c:strCache>
@@ -1437,10 +1380,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$26:$D$34</c:f>
+              <c:f>Sheet1!$D$24:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>501.59</c:v>
                 </c:pt>
@@ -1457,15 +1400,12 @@
                   <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>431.95</c:v>
+                  <c:v>260.91000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>395.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>395.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>249.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -1760,7 +1700,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$35</c:f>
+              <c:f>Sheet1!$C$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1783,9 +1723,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$36:$B$44</c:f>
+              <c:f>Sheet1!$B$33:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Ponto de Ônibus</c:v>
                 </c:pt>
@@ -1805,12 +1745,9 @@
                   <c:v>Saída Matemática</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Campo</c:v>
+                  <c:v>IQSC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>IQSC</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>SEL</c:v>
                 </c:pt>
               </c:strCache>
@@ -1818,10 +1755,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$36:$C$44</c:f>
+              <c:f>Sheet1!$C$33:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>606.6</c:v>
                 </c:pt>
@@ -1841,13 +1778,10 @@
                   <c:v>149.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>263.2</c:v>
+                  <c:v>483.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500.14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>327.18</c:v>
+                  <c:v>272.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,7 +1797,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$35</c:f>
+              <c:f>Sheet1!$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1886,9 +1820,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$36:$B$44</c:f>
+              <c:f>Sheet1!$B$33:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Ponto de Ônibus</c:v>
                 </c:pt>
@@ -1908,12 +1842,9 @@
                   <c:v>Saída Matemática</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Campo</c:v>
+                  <c:v>IQSC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>IQSC</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>SEL</c:v>
                 </c:pt>
               </c:strCache>
@@ -1921,10 +1852,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$36:$D$44</c:f>
+              <c:f>Sheet1!$D$33:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>638.59</c:v>
                 </c:pt>
@@ -1944,12 +1875,9 @@
                   <c:v>149.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>532.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>532.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>386.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -4296,8 +4224,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>688109</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28864</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4332,7 +4260,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>204354</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>49261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4362,13 +4290,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4398,13 +4326,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4434,9 +4362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4474,7 +4402,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4580,7 +4508,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4722,7 +4650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4730,10 +4658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5922FC76-86D4-184C-A1AF-3E7B86AC532B}">
-  <dimension ref="A2:E44"/>
+  <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="109" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4745,722 +4673,650 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>469.6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>501.59</v>
       </c>
-      <c r="E4" s="3">
-        <f>D4-C4</f>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E11" si="0">D4-C4</f>
         <v>31.989999999999952</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>576.97</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>608.96</v>
       </c>
-      <c r="E5" s="3">
-        <f>D5-C5</f>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
         <v>31.990000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>146.47</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>178.46</v>
       </c>
-      <c r="E6" s="3">
-        <f>D6-C6</f>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
         <v>31.990000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>752.71</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>752.71</v>
       </c>
-      <c r="E7" s="3">
-        <f>D7-C7</f>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>457.76</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>457.76</v>
       </c>
-      <c r="E8" s="3">
-        <f>D8-C8</f>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>260.91000000000003</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>260.91000000000003</v>
       </c>
-      <c r="E9" s="3">
-        <f>D9-C9</f>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
-        <v>1197.54</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <f>D10-C10</f>
-        <v>-1197.54</v>
+      <c r="C10" s="3">
+        <v>882.73</v>
+      </c>
+      <c r="D10" s="3">
+        <v>914.72</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>31.990000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
-        <v>882.73</v>
-      </c>
-      <c r="D11" s="5">
-        <v>914.72</v>
-      </c>
-      <c r="E11" s="3">
-        <f>D11-C11</f>
-        <v>31.990000000000009</v>
+      <c r="C11" s="3">
+        <v>1313.52</v>
+      </c>
+      <c r="D11" s="3">
+        <v>249.86</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>-1063.6599999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1313.52</v>
-      </c>
-      <c r="D12" s="10">
-        <v>249.86</v>
-      </c>
-      <c r="E12" s="13">
-        <f>D12-C12</f>
-        <v>-1063.6599999999999</v>
-      </c>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>880.44</v>
+      </c>
+      <c r="D13" s="3">
+        <v>912.43</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:E20" si="1">D13-C13</f>
+        <v>31.989999999999895</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5">
-        <v>880.44</v>
-      </c>
-      <c r="D14" s="5">
-        <v>912.43</v>
-      </c>
-      <c r="E14" s="3">
-        <f>D14-C14</f>
-        <v>31.989999999999895</v>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>987.81</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1019.8</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>31.990000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <v>987.81</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1019.8</v>
-      </c>
-      <c r="E15" s="3">
-        <f>D15-C15</f>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>557.30999999999995</v>
+      </c>
+      <c r="D15" s="3">
+        <v>589.29999999999995</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
         <v>31.990000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
-        <v>557.30999999999995</v>
-      </c>
-      <c r="D16" s="5">
-        <v>589.29999999999995</v>
-      </c>
-      <c r="E16" s="3">
-        <f>D16-C16</f>
-        <v>31.990000000000009</v>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>410.84</v>
+      </c>
+      <c r="D16" s="3">
+        <v>410.84</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5">
-        <v>410.84</v>
-      </c>
-      <c r="D17" s="5">
-        <v>410.84</v>
-      </c>
-      <c r="E17" s="3">
-        <f>D17-C17</f>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>346.78</v>
+      </c>
+      <c r="D17" s="3">
+        <v>346.78</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5">
-        <v>346.78</v>
-      </c>
-      <c r="D18" s="5">
-        <v>346.78</v>
-      </c>
-      <c r="E18" s="3">
-        <f>D18-C18</f>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>149.93</v>
+      </c>
+      <c r="D18" s="3">
+        <v>149.93</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5">
-        <v>149.93</v>
-      </c>
-      <c r="D19" s="5">
-        <v>149.93</v>
-      </c>
-      <c r="E19" s="3">
-        <f>D19-C19</f>
-        <v>0</v>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1293.57</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1325.56</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>31.990000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1608.38</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <f>D20-C20</f>
-        <v>-1608.38</v>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1724.36</v>
+      </c>
+      <c r="D20" s="3">
+        <v>660.7</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>-1063.6599999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1293.57</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1325.56</v>
-      </c>
-      <c r="E21" s="3">
-        <f>D21-C21</f>
-        <v>31.990000000000009</v>
-      </c>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
-    <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1724.36</v>
-      </c>
-      <c r="D22" s="10">
-        <v>660.7</v>
-      </c>
-      <c r="E22" s="13">
-        <f>D22-C22</f>
-        <v>-1063.6599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>469.6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>501.59</v>
+      </c>
+      <c r="E24" s="4">
+        <f>D24-C24</f>
+        <v>31.989999999999952</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>13</v>
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>576.97</v>
+      </c>
+      <c r="D25" s="4">
+        <v>608.96</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" ref="E25:E40" si="2">D25-C25</f>
+        <v>31.990000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="6">
-        <v>469.6</v>
-      </c>
-      <c r="D26" s="6">
-        <v>501.59</v>
-      </c>
-      <c r="E26" s="6">
-        <f>D26-C26</f>
-        <v>31.989999999999952</v>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>146.47</v>
+      </c>
+      <c r="D26" s="4">
+        <v>178.46</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="2"/>
+        <v>31.990000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6">
-        <v>576.97</v>
-      </c>
-      <c r="D27" s="6">
-        <v>608.96</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" ref="E27:E44" si="0">D27-C27</f>
-        <v>31.990000000000009</v>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4">
+        <v>137</v>
+      </c>
+      <c r="D27" s="4">
+        <v>137</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6">
-        <v>146.47</v>
-      </c>
-      <c r="D28" s="6">
-        <v>178.46</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" si="0"/>
-        <v>31.990000000000009</v>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4">
+        <v>431.95</v>
+      </c>
+      <c r="D28" s="4">
+        <v>431</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.94999999999998863</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="6">
-        <v>137</v>
-      </c>
-      <c r="D29" s="6">
-        <v>137</v>
-      </c>
-      <c r="E29" s="6">
-        <f t="shared" si="0"/>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4">
+        <v>260.91000000000003</v>
+      </c>
+      <c r="D29" s="7">
+        <v>260.91000000000003</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6">
-        <v>431.95</v>
-      </c>
-      <c r="D30" s="6">
-        <v>431</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.94999999999998863</v>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4">
+        <v>346.94</v>
+      </c>
+      <c r="D30" s="4">
+        <v>395.13</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="2"/>
+        <v>48.19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="6">
-        <v>260.91000000000003</v>
-      </c>
-      <c r="D31" s="6">
-        <v>431.95</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="0"/>
-        <v>171.03999999999996</v>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <v>249.86</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="2"/>
+        <v>114.72000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="6">
-        <v>126.2</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="0"/>
-        <v>-126.2</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="6">
-        <v>363.14</v>
-      </c>
-      <c r="D33" s="6">
-        <v>395.13</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="0"/>
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>606.6</v>
+      </c>
+      <c r="D33" s="4">
+        <v>638.59</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="2"/>
         <v>31.990000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="11">
-        <v>190.18</v>
-      </c>
-      <c r="D34" s="11">
-        <v>249.86</v>
-      </c>
-      <c r="E34" s="11">
-        <f t="shared" si="0"/>
-        <v>59.680000000000007</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4">
+        <v>713.97</v>
+      </c>
+      <c r="D34" s="4">
+        <v>745.96</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="2"/>
+        <v>31.990000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6"/>
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4">
+        <v>283.47000000000003</v>
+      </c>
+      <c r="D35" s="4">
+        <v>315.45999999999998</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="2"/>
+        <v>31.989999999999952</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="6">
-        <v>606.6</v>
-      </c>
-      <c r="D36" s="6">
-        <v>638.59</v>
-      </c>
-      <c r="E36" s="6">
-        <f t="shared" si="0"/>
-        <v>31.990000000000009</v>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4">
+        <v>137</v>
+      </c>
+      <c r="D36" s="4">
+        <v>137</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="6">
-        <v>713.97</v>
-      </c>
-      <c r="D37" s="6">
-        <v>745.96</v>
-      </c>
-      <c r="E37" s="6">
-        <f t="shared" si="0"/>
-        <v>31.990000000000009</v>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4">
+        <v>294.95</v>
+      </c>
+      <c r="D37" s="4">
+        <v>294.95</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="6">
-        <v>283.47000000000003</v>
-      </c>
-      <c r="D38" s="6">
-        <v>315.45999999999998</v>
-      </c>
-      <c r="E38" s="6">
-        <f t="shared" si="0"/>
-        <v>31.989999999999952</v>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4">
+        <v>149.93</v>
+      </c>
+      <c r="D38" s="4">
+        <v>149.93</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="6">
-        <v>137</v>
-      </c>
-      <c r="D39" s="6">
-        <v>137</v>
-      </c>
-      <c r="E39" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4">
+        <v>483.94</v>
+      </c>
+      <c r="D39" s="4">
+        <v>532.13</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="2"/>
+        <v>48.19</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="6">
-        <v>294.95</v>
-      </c>
-      <c r="D40" s="6">
-        <v>294.95</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="6">
-        <v>149.93</v>
-      </c>
-      <c r="D41" s="6">
-        <v>149.93</v>
-      </c>
-      <c r="E41" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="6">
-        <v>263.2</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6">
-        <f t="shared" si="0"/>
-        <v>-263.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="6">
-        <v>500.14</v>
-      </c>
-      <c r="D43" s="6">
-        <v>532.13</v>
-      </c>
-      <c r="E43" s="6">
-        <f t="shared" si="0"/>
-        <v>31.990000000000009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="11">
-        <v>327.18</v>
-      </c>
-      <c r="D44" s="11">
+      <c r="C40" s="4">
+        <v>272.14</v>
+      </c>
+      <c r="D40" s="4">
         <v>386.86</v>
       </c>
-      <c r="E44" s="11">
-        <f t="shared" si="0"/>
-        <v>59.680000000000007</v>
+      <c r="E40" s="4">
+        <f t="shared" si="2"/>
+        <v>114.72000000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
